--- a/UniApplikation/OutputFiles/WPM3.xlsx
+++ b/UniApplikation/OutputFiles/WPM3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>Platznummer</t>
   </si>
@@ -32,64 +32,196 @@
     <t>Studentenname</t>
   </si>
   <si>
+    <t>Student93</t>
+  </si>
+  <si>
+    <t>Student19</t>
+  </si>
+  <si>
+    <t>Student38</t>
+  </si>
+  <si>
+    <t>Student37</t>
+  </si>
+  <si>
+    <t>Student114</t>
+  </si>
+  <si>
+    <t>Student4</t>
+  </si>
+  <si>
+    <t>Student27</t>
+  </si>
+  <si>
+    <t>Student10</t>
+  </si>
+  <si>
+    <t>Student54</t>
+  </si>
+  <si>
     <t>Student63</t>
   </si>
   <si>
-    <t>Student37</t>
-  </si>
-  <si>
-    <t>Student38</t>
-  </si>
-  <si>
-    <t>Student54</t>
+    <t>Student22</t>
+  </si>
+  <si>
+    <t>Student115</t>
+  </si>
+  <si>
+    <t>Student131</t>
+  </si>
+  <si>
+    <t>Student35</t>
+  </si>
+  <si>
+    <t>Student41</t>
+  </si>
+  <si>
+    <t>Student9</t>
   </si>
   <si>
     <t>Student64</t>
   </si>
   <si>
-    <t>Student19</t>
-  </si>
-  <si>
-    <t>Student115</t>
-  </si>
-  <si>
-    <t>Student41</t>
-  </si>
-  <si>
-    <t>Student4</t>
-  </si>
-  <si>
-    <t>Student35</t>
-  </si>
-  <si>
-    <t>Student10</t>
-  </si>
-  <si>
-    <t>Student9</t>
-  </si>
-  <si>
-    <t>Student131</t>
-  </si>
-  <si>
-    <t>Student93</t>
-  </si>
-  <si>
-    <t>Student22</t>
-  </si>
-  <si>
-    <t>Student27</t>
-  </si>
-  <si>
-    <t>Student133</t>
+    <t>Student70</t>
+  </si>
+  <si>
+    <t>Student123</t>
+  </si>
+  <si>
+    <t>Student101</t>
+  </si>
+  <si>
+    <t>Student13</t>
+  </si>
+  <si>
+    <t>Student55</t>
+  </si>
+  <si>
+    <t>Student142</t>
+  </si>
+  <si>
+    <t>Student141</t>
+  </si>
+  <si>
+    <t>Student95</t>
+  </si>
+  <si>
+    <t>Student46</t>
+  </si>
+  <si>
+    <t>Student117</t>
   </si>
   <si>
     <t>Student135</t>
   </si>
   <si>
-    <t>Student114</t>
-  </si>
-  <si>
-    <t>Student70</t>
+    <t>Student1</t>
+  </si>
+  <si>
+    <t>Student68</t>
+  </si>
+  <si>
+    <t>Student65</t>
+  </si>
+  <si>
+    <t>Student73</t>
+  </si>
+  <si>
+    <t>Student20</t>
+  </si>
+  <si>
+    <t>Student134</t>
+  </si>
+  <si>
+    <t>Student124</t>
+  </si>
+  <si>
+    <t>Student15</t>
+  </si>
+  <si>
+    <t>Student71</t>
+  </si>
+  <si>
+    <t>Student89</t>
+  </si>
+  <si>
+    <t>Student36</t>
+  </si>
+  <si>
+    <t>Student5</t>
+  </si>
+  <si>
+    <t>Student44</t>
+  </si>
+  <si>
+    <t>Student119</t>
+  </si>
+  <si>
+    <t>Student94</t>
+  </si>
+  <si>
+    <t>Student57</t>
+  </si>
+  <si>
+    <t>Student23</t>
+  </si>
+  <si>
+    <t>Student28</t>
+  </si>
+  <si>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>Student74</t>
+  </si>
+  <si>
+    <t>Student39</t>
+  </si>
+  <si>
+    <t>Student85</t>
+  </si>
+  <si>
+    <t>Student3</t>
+  </si>
+  <si>
+    <t>Student100</t>
+  </si>
+  <si>
+    <t>Student11</t>
+  </si>
+  <si>
+    <t>Student132</t>
+  </si>
+  <si>
+    <t>Student116</t>
+  </si>
+  <si>
+    <t>Student42</t>
+  </si>
+  <si>
+    <t>Student118</t>
+  </si>
+  <si>
+    <t>Student45</t>
+  </si>
+  <si>
+    <t>Student58</t>
+  </si>
+  <si>
+    <t>Student14</t>
+  </si>
+  <si>
+    <t>Student29</t>
+  </si>
+  <si>
+    <t>Student30</t>
+  </si>
+  <si>
+    <t>Althaus</t>
+  </si>
+  <si>
+    <t>Student66</t>
   </si>
 </sst>
 </file>
@@ -142,6 +274,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:B65" totalsRowShown="0">
+  <autoFilter ref="A1:B65"/>
+  <sortState ref="A2:B65">
+    <sortCondition ref="B1:B65"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Platznummer"/>
+    <tableColumn id="2" name="Studentenname"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,11 +553,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -423,165 +575,520 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>47</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>61</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>22</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>59</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>17</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>30</v>
+      </c>
+      <c r="B55" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>37</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>32</v>
+      </c>
+      <c r="B58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>48</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>38</v>
+      </c>
+      <c r="B61" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>16</v>
+      </c>
+      <c r="B62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>43</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>25</v>
+      </c>
+      <c r="B65" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/UniApplikation/OutputFiles/WPM3.xlsx
+++ b/UniApplikation/OutputFiles/WPM3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>Platznummer</t>
   </si>
@@ -32,196 +32,193 @@
     <t>Studentenname</t>
   </si>
   <si>
+    <t>Student54</t>
+  </si>
+  <si>
+    <t>Student41</t>
+  </si>
+  <si>
+    <t>Student19</t>
+  </si>
+  <si>
+    <t>Student38</t>
+  </si>
+  <si>
     <t>Student93</t>
   </si>
   <si>
-    <t>Student19</t>
-  </si>
-  <si>
-    <t>Student38</t>
+    <t>Student70</t>
+  </si>
+  <si>
+    <t>Student131</t>
+  </si>
+  <si>
+    <t>Student35</t>
+  </si>
+  <si>
+    <t>Student115</t>
   </si>
   <si>
     <t>Student37</t>
   </si>
   <si>
+    <t>Student27</t>
+  </si>
+  <si>
+    <t>Student4</t>
+  </si>
+  <si>
+    <t>Student9</t>
+  </si>
+  <si>
+    <t>Student22</t>
+  </si>
+  <si>
+    <t>Student63</t>
+  </si>
+  <si>
     <t>Student114</t>
   </si>
   <si>
-    <t>Student4</t>
-  </si>
-  <si>
-    <t>Student27</t>
-  </si>
-  <si>
     <t>Student10</t>
   </si>
   <si>
-    <t>Student54</t>
-  </si>
-  <si>
-    <t>Student63</t>
-  </si>
-  <si>
-    <t>Student22</t>
-  </si>
-  <si>
-    <t>Student115</t>
-  </si>
-  <si>
-    <t>Student131</t>
-  </si>
-  <si>
-    <t>Student35</t>
-  </si>
-  <si>
-    <t>Student41</t>
-  </si>
-  <si>
-    <t>Student9</t>
-  </si>
-  <si>
     <t>Student64</t>
   </si>
   <si>
-    <t>Student70</t>
+    <t>Student142</t>
+  </si>
+  <si>
+    <t>Student100</t>
+  </si>
+  <si>
+    <t>Student20</t>
+  </si>
+  <si>
+    <t>Student55</t>
+  </si>
+  <si>
+    <t>Student116</t>
+  </si>
+  <si>
+    <t>Student11</t>
+  </si>
+  <si>
+    <t>Student23</t>
+  </si>
+  <si>
+    <t>Student15</t>
+  </si>
+  <si>
+    <t>Student42</t>
+  </si>
+  <si>
+    <t>Student65</t>
+  </si>
+  <si>
+    <t>Student74</t>
+  </si>
+  <si>
+    <t>Student39</t>
+  </si>
+  <si>
+    <t>Student85</t>
   </si>
   <si>
     <t>Student123</t>
   </si>
   <si>
+    <t>Student94</t>
+  </si>
+  <si>
+    <t>Student95</t>
+  </si>
+  <si>
+    <t>Student28</t>
+  </si>
+  <si>
+    <t>Student46</t>
+  </si>
+  <si>
+    <t>Student132</t>
+  </si>
+  <si>
+    <t>Student12</t>
+  </si>
+  <si>
+    <t>Student57</t>
+  </si>
+  <si>
+    <t>Student119</t>
+  </si>
+  <si>
+    <t>Student141</t>
+  </si>
+  <si>
+    <t>Student36</t>
+  </si>
+  <si>
+    <t>Student71</t>
+  </si>
+  <si>
+    <t>Student13</t>
+  </si>
+  <si>
+    <t>Student118</t>
+  </si>
+  <si>
+    <t>Student68</t>
+  </si>
+  <si>
+    <t>Student135</t>
+  </si>
+  <si>
+    <t>Student97</t>
+  </si>
+  <si>
+    <t>Student89</t>
+  </si>
+  <si>
     <t>Student101</t>
   </si>
   <si>
-    <t>Student13</t>
-  </si>
-  <si>
-    <t>Student55</t>
-  </si>
-  <si>
-    <t>Student142</t>
-  </si>
-  <si>
-    <t>Student141</t>
-  </si>
-  <si>
-    <t>Student95</t>
-  </si>
-  <si>
-    <t>Student46</t>
+    <t>Student134</t>
+  </si>
+  <si>
+    <t>Student124</t>
+  </si>
+  <si>
+    <t>Student1</t>
+  </si>
+  <si>
+    <t>Student2</t>
   </si>
   <si>
     <t>Student117</t>
   </si>
   <si>
-    <t>Student135</t>
-  </si>
-  <si>
-    <t>Student1</t>
-  </si>
-  <si>
-    <t>Student68</t>
-  </si>
-  <si>
-    <t>Student65</t>
+    <t>Student5</t>
   </si>
   <si>
     <t>Student73</t>
   </si>
   <si>
-    <t>Student20</t>
-  </si>
-  <si>
-    <t>Student134</t>
-  </si>
-  <si>
-    <t>Student124</t>
-  </si>
-  <si>
-    <t>Student15</t>
-  </si>
-  <si>
-    <t>Student71</t>
-  </si>
-  <si>
-    <t>Student89</t>
-  </si>
-  <si>
-    <t>Student36</t>
-  </si>
-  <si>
-    <t>Student5</t>
-  </si>
-  <si>
-    <t>Student44</t>
-  </si>
-  <si>
-    <t>Student119</t>
-  </si>
-  <si>
-    <t>Student94</t>
-  </si>
-  <si>
-    <t>Student57</t>
-  </si>
-  <si>
-    <t>Student23</t>
-  </si>
-  <si>
-    <t>Student28</t>
-  </si>
-  <si>
-    <t>Student2</t>
-  </si>
-  <si>
-    <t>Student74</t>
-  </si>
-  <si>
-    <t>Student39</t>
-  </si>
-  <si>
-    <t>Student85</t>
-  </si>
-  <si>
-    <t>Student3</t>
-  </si>
-  <si>
-    <t>Student100</t>
-  </si>
-  <si>
-    <t>Student11</t>
-  </si>
-  <si>
-    <t>Student132</t>
-  </si>
-  <si>
-    <t>Student116</t>
-  </si>
-  <si>
-    <t>Student42</t>
-  </si>
-  <si>
-    <t>Student118</t>
-  </si>
-  <si>
     <t>Student45</t>
   </si>
   <si>
     <t>Student58</t>
   </si>
   <si>
-    <t>Student14</t>
+    <t>Student66</t>
   </si>
   <si>
     <t>Student29</t>
   </si>
   <si>
+    <t>Althaus</t>
+  </si>
+  <si>
     <t>Student30</t>
-  </si>
-  <si>
-    <t>Althaus</t>
-  </si>
-  <si>
-    <t>Student66</t>
   </si>
 </sst>
 </file>
@@ -274,20 +271,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:B65" totalsRowShown="0">
-  <autoFilter ref="A1:B65"/>
-  <sortState ref="A2:B65">
-    <sortCondition ref="B1:B65"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Platznummer"/>
-    <tableColumn id="2" name="Studentenname"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,17 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -575,520 +552,509 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>2</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>25</v>
-      </c>
-      <c r="B65" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/UniApplikation/OutputFiles/WPM3.xlsx
+++ b/UniApplikation/OutputFiles/WPM3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Platznummer</t>
   </si>
@@ -32,190 +32,187 @@
     <t>Studentenname</t>
   </si>
   <si>
+    <t>Student27</t>
+  </si>
+  <si>
+    <t>Student114</t>
+  </si>
+  <si>
+    <t>Student63</t>
+  </si>
+  <si>
+    <t>Student115</t>
+  </si>
+  <si>
+    <t>Student19</t>
+  </si>
+  <si>
+    <t>Student4</t>
+  </si>
+  <si>
+    <t>Student131</t>
+  </si>
+  <si>
+    <t>Student70</t>
+  </si>
+  <si>
+    <t>Student38</t>
+  </si>
+  <si>
+    <t>Student35</t>
+  </si>
+  <si>
     <t>Student54</t>
   </si>
   <si>
+    <t>Student37</t>
+  </si>
+  <si>
+    <t>Student93</t>
+  </si>
+  <si>
+    <t>Student64</t>
+  </si>
+  <si>
     <t>Student41</t>
   </si>
   <si>
-    <t>Student19</t>
-  </si>
-  <si>
-    <t>Student38</t>
-  </si>
-  <si>
-    <t>Student93</t>
-  </si>
-  <si>
-    <t>Student70</t>
-  </si>
-  <si>
-    <t>Student131</t>
-  </si>
-  <si>
-    <t>Student35</t>
-  </si>
-  <si>
-    <t>Student115</t>
-  </si>
-  <si>
-    <t>Student37</t>
-  </si>
-  <si>
-    <t>Student27</t>
-  </si>
-  <si>
-    <t>Student4</t>
+    <t>Student22</t>
+  </si>
+  <si>
+    <t>Student10</t>
+  </si>
+  <si>
+    <t>Student123</t>
+  </si>
+  <si>
+    <t>Student46</t>
+  </si>
+  <si>
+    <t>Student116</t>
+  </si>
+  <si>
+    <t>Student5</t>
+  </si>
+  <si>
+    <t>Student89</t>
+  </si>
+  <si>
+    <t>Student23</t>
+  </si>
+  <si>
+    <t>Student95</t>
+  </si>
+  <si>
+    <t>Student100</t>
+  </si>
+  <si>
+    <t>Student65</t>
+  </si>
+  <si>
+    <t>Student74</t>
+  </si>
+  <si>
+    <t>Student85</t>
   </si>
   <si>
     <t>Student9</t>
   </si>
   <si>
-    <t>Student22</t>
-  </si>
-  <si>
-    <t>Student63</t>
-  </si>
-  <si>
-    <t>Student114</t>
-  </si>
-  <si>
-    <t>Student10</t>
-  </si>
-  <si>
-    <t>Student64</t>
+    <t>Student132</t>
+  </si>
+  <si>
+    <t>Student55</t>
+  </si>
+  <si>
+    <t>Student39</t>
+  </si>
+  <si>
+    <t>Student101</t>
+  </si>
+  <si>
+    <t>Student15</t>
+  </si>
+  <si>
+    <t>Student94</t>
+  </si>
+  <si>
+    <t>Student28</t>
+  </si>
+  <si>
+    <t>Student133</t>
+  </si>
+  <si>
+    <t>Student12</t>
+  </si>
+  <si>
+    <t>Student20</t>
+  </si>
+  <si>
+    <t>Student58</t>
+  </si>
+  <si>
+    <t>Student68</t>
+  </si>
+  <si>
+    <t>Student119</t>
+  </si>
+  <si>
+    <t>Student135</t>
+  </si>
+  <si>
+    <t>Student141</t>
+  </si>
+  <si>
+    <t>Student1</t>
   </si>
   <si>
     <t>Student142</t>
   </si>
   <si>
-    <t>Student100</t>
-  </si>
-  <si>
-    <t>Student20</t>
-  </si>
-  <si>
-    <t>Student55</t>
-  </si>
-  <si>
-    <t>Student116</t>
+    <t>Student45</t>
   </si>
   <si>
     <t>Student11</t>
   </si>
   <si>
-    <t>Student23</t>
-  </si>
-  <si>
-    <t>Student15</t>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>Student71</t>
+  </si>
+  <si>
+    <t>Student117</t>
+  </si>
+  <si>
+    <t>Student124</t>
+  </si>
+  <si>
+    <t>Student36</t>
+  </si>
+  <si>
+    <t>Student13</t>
+  </si>
+  <si>
+    <t>Student134</t>
+  </si>
+  <si>
+    <t>Student73</t>
   </si>
   <si>
     <t>Student42</t>
   </si>
   <si>
-    <t>Student65</t>
-  </si>
-  <si>
-    <t>Student74</t>
-  </si>
-  <si>
-    <t>Student39</t>
-  </si>
-  <si>
-    <t>Student85</t>
-  </si>
-  <si>
-    <t>Student123</t>
-  </si>
-  <si>
-    <t>Student94</t>
-  </si>
-  <si>
-    <t>Student95</t>
-  </si>
-  <si>
-    <t>Student28</t>
-  </si>
-  <si>
-    <t>Student46</t>
-  </si>
-  <si>
-    <t>Student132</t>
-  </si>
-  <si>
-    <t>Student12</t>
-  </si>
-  <si>
-    <t>Student57</t>
-  </si>
-  <si>
-    <t>Student119</t>
-  </si>
-  <si>
-    <t>Student141</t>
-  </si>
-  <si>
-    <t>Student36</t>
-  </si>
-  <si>
-    <t>Student71</t>
-  </si>
-  <si>
-    <t>Student13</t>
+    <t>Althaus</t>
   </si>
   <si>
     <t>Student118</t>
   </si>
   <si>
-    <t>Student68</t>
-  </si>
-  <si>
-    <t>Student135</t>
-  </si>
-  <si>
-    <t>Student97</t>
-  </si>
-  <si>
-    <t>Student89</t>
-  </si>
-  <si>
-    <t>Student101</t>
-  </si>
-  <si>
-    <t>Student134</t>
-  </si>
-  <si>
-    <t>Student124</t>
-  </si>
-  <si>
-    <t>Student1</t>
-  </si>
-  <si>
-    <t>Student2</t>
-  </si>
-  <si>
-    <t>Student117</t>
-  </si>
-  <si>
-    <t>Student5</t>
-  </si>
-  <si>
-    <t>Student73</t>
-  </si>
-  <si>
-    <t>Student45</t>
-  </si>
-  <si>
-    <t>Student58</t>
-  </si>
-  <si>
     <t>Student66</t>
   </si>
   <si>
     <t>Student29</t>
-  </si>
-  <si>
-    <t>Althaus</t>
   </si>
   <si>
     <t>Student30</t>
@@ -536,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1046,14 +1043,6 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>64</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
